--- a/outputs-r202/c__Actinomycetia.xlsx
+++ b/outputs-r202/c__Actinomycetia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -746,6 +766,11 @@
       <c r="Q5" t="inlineStr">
         <is>
           <t>o__Streptosporangiales</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>o__Streptosporangiales(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/c__Actinomycetia.xlsx
+++ b/outputs-r202/c__Actinomycetia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,68 +712,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG422.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7.51620022907722e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06454535470180653</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.537356330987259e-05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.006456633546465446</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.51620022907729e-14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.516200229077218e-14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2429638944583042</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.224925659050176e-05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.51620022907722e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.008196316627076884</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.163192054918793e-09</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0002526963058737013</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0004290608458308349</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6770584195312493</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6770584195312493</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>o__Streptosporangiales</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>o__Streptosporangiales(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
